--- a/medicine/Psychotrope/Saint-pierre_doré/Saint-pierre_doré.xlsx
+++ b/medicine/Psychotrope/Saint-pierre_doré/Saint-pierre_doré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-pierre_dor%C3%A9</t>
+          <t>Saint-pierre_doré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le saint-pierre doré B est un cépage français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-pierre_dor%C3%A9</t>
+          <t>Saint-pierre_doré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Le saint pierre doré est autochtone du vignoble de l'Allier, originaire de la commune du Vernet. Il appartient à la famille des Gouais[1].
-Répartition géographique
-C'est un cépage en voie de disparition. Sa surface en France est passée de 123 hectares en 1958 à un seul hectare en 1994.
-Il est encore cultivé au Conservatoire des anciens cépages de Chareil-Cintrat et surtout au Verger conservatoire de le Vernet à proximité de Vichy, lieu d'origine du cépage, où tous les ans sont réalisées les vendanges traditionnelles.
-Chaque année, la cuvée réalisée par un vigneron professionnel est présentée à la population lors de la fête patronale de la Saint Georges (fin avril), il peut être dégusté à cette occasion ou auprès du Verger conservatoire lui-même[2].
-Ce cépage est nommé roussellou dans le vignoble d'Estaing[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saint pierre doré est autochtone du vignoble de l'Allier, originaire de la commune du Vernet. Il appartient à la famille des Gouais.
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saint-pierre_dor%C3%A9</t>
+          <t>Saint-pierre_doré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cépage en voie de disparition. Sa surface en France est passée de 123 hectares en 1958 à un seul hectare en 1994.
+Il est encore cultivé au Conservatoire des anciens cépages de Chareil-Cintrat et surtout au Verger conservatoire de le Vernet à proximité de Vichy, lieu d'origine du cépage, où tous les ans sont réalisées les vendanges traditionnelles.
+Chaque année, la cuvée réalisée par un vigneron professionnel est présentée à la population lors de la fête patronale de la Saint Georges (fin avril), il peut être dégusté à cette occasion ou auprès du Verger conservatoire lui-même.
+Ce cépage est nommé roussellou dans le vignoble d'Estaing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saint-pierre_doré</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-pierre_dor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le bourgeonnement est cotonneux. Le jeunes feuilles sont bronzées.
 Le rameau herbacé est coloré (rouge) sur les entre-nœuds.
@@ -558,49 +612,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Saint-pierre_dor%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-pierre_dor%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aptitudes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Cépage moyennement vigoureux, le saint pierre doré est productif. Une taille modérément longue lui convient.
-Sensibilité aux maladies
-Il est relativement tolérant au mildiou et à l'oïdium, mais craint énormément la pourriture grise.
-Potentiel technologique
-Ce cépage donne un moût peu sucré mais acide. Ses arômes sont discrets. Il peut servir de vin de base à effervescents.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Saint-pierre_dor%C3%A9</t>
+          <t>Saint-pierre_doré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +633,123 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cépage moyennement vigoureux, le saint pierre doré est productif. Une taille modérément longue lui convient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saint-pierre_doré</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-pierre_dor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est relativement tolérant au mildiou et à l'oïdium, mais craint énormément la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saint-pierre_doré</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-pierre_dor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Potentiel technologique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage donne un moût peu sucré mais acide. Ses arômes sont discrets. Il peut servir de vin de base à effervescents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saint-pierre_doré</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-pierre_dor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
